--- a/biology/Médecine/1564_en_santé_et_médecine/1564_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1564_en_santé_et_médecine/1564_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1564_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1564_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1564 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1564_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1564_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Giulio Cesare Aranzio (1530-1589) fait imprimer à Bologne, par Giovanni Rossi, son De humano foetu libellus[1],[2].
-Antoine Mizauld (1510-1578), fait imprimer à Paris, chez Fédéric Morel, son Alexikepus, seu Auxiliaris et medicus hortus[3].
-Ambroise Paré (1509 ou 1510-1590), Dix livres de la Chirurgie, avec le Magasin des instrumens nécessaires à icelle, chez Jean Le Royer, à Paris[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Giulio Cesare Aranzio (1530-1589) fait imprimer à Bologne, par Giovanni Rossi, son De humano foetu libellus,.
+Antoine Mizauld (1510-1578), fait imprimer à Paris, chez Fédéric Morel, son Alexikepus, seu Auxiliaris et medicus hortus.
+Ambroise Paré (1509 ou 1510-1590), Dix livres de la Chirurgie, avec le Magasin des instrumens nécessaires à icelle, chez Jean Le Royer, à Paris.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1564_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1564_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pieter Pauw (mort en 1617), médecin et botaniste néerlandais[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pieter Pauw (mort en 1617), médecin et botaniste néerlandais.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1564_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1564_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15 octobre : Vésale (né en 1514), médecin et anatomiste brabançon[6].
-18 octobre : Johannes Acronius Frisius (né vers 1520), médecin, astronome et mathématicien néerlandais[7].
-8 novembre : Melchior Fendt (de) (né en 1486), philosophe et médecin allemand, professeur à Wittemberg, en Saxe, chancelier de l'université en 1553, fondateur de l'hôpital des étudiants de Wittemberg et auteur, entre autres ouvrages, d'un De formatione foetus[8].
-Pierre Belon (né en 1517), apothicaire et naturaliste français[9].
-Charles Estienne (né en 1504), médecin, imprimeur et écrivain français[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 octobre : Vésale (né en 1514), médecin et anatomiste brabançon.
+18 octobre : Johannes Acronius Frisius (né vers 1520), médecin, astronome et mathématicien néerlandais.
+8 novembre : Melchior Fendt (de) (né en 1486), philosophe et médecin allemand, professeur à Wittemberg, en Saxe, chancelier de l'université en 1553, fondateur de l'hôpital des étudiants de Wittemberg et auteur, entre autres ouvrages, d'un De formatione foetus.
+Pierre Belon (né en 1517), apothicaire et naturaliste français.
+Charles Estienne (né en 1504), médecin, imprimeur et écrivain français,.
 </t>
         </is>
       </c>
